--- a/tribolium_data_pilot.xlsx
+++ b/tribolium_data_pilot.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samanthabrozak/Desktop/Tribolium-LPAA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{913164E2-AE63-2C42-980B-EBA95D3351B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2D5D1B-BFA6-FA4C-946E-774FC7B8D89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48100" yWindow="1920" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="10" r:id="rId1"/>
     <sheet name="all_data" sheetId="1" r:id="rId2"/>
-    <sheet name="Nub_05" sheetId="3" r:id="rId3"/>
-    <sheet name="Nb_05" sheetId="2" r:id="rId4"/>
-    <sheet name="Nub_1" sheetId="5" r:id="rId5"/>
-    <sheet name="Nb_1" sheetId="4" r:id="rId6"/>
-    <sheet name="Pub_05" sheetId="7" r:id="rId7"/>
-    <sheet name="Pb_05" sheetId="6" r:id="rId8"/>
-    <sheet name="Pub_1" sheetId="9" r:id="rId9"/>
-    <sheet name="Pb_1" sheetId="8" r:id="rId10"/>
+    <sheet name="N_ub_05" sheetId="3" r:id="rId3"/>
+    <sheet name="N_b_05" sheetId="2" r:id="rId4"/>
+    <sheet name="N_ub_1" sheetId="5" r:id="rId5"/>
+    <sheet name="N_b_1" sheetId="4" r:id="rId6"/>
+    <sheet name="P_ub_05" sheetId="7" r:id="rId7"/>
+    <sheet name="P_b_05" sheetId="6" r:id="rId8"/>
+    <sheet name="P_ub_1" sheetId="9" r:id="rId9"/>
+    <sheet name="P_b_1" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">all_data!$B$1:$B$241</definedName>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>This spreadsheet contains experimental data from the Nagy Lab at Scottsdale Community College.</t>
-  </si>
-  <si>
-    <t>(element)(flour type)_(concetration)</t>
   </si>
   <si>
     <t>where</t>
@@ -307,6 +304,9 @@
   </si>
   <si>
     <t>More information on experimental protocols may be found in the appendix of the manuscript.</t>
+  </si>
+  <si>
+    <t>(element)_(flour type)_(concetration)</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1174,7 @@
   <dimension ref="A2:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1190,62 +1190,62 @@
     </row>
     <row r="4" spans="1:1" ht="44" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="22" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="22" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="22" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="44" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="44" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
